--- a/Code/Results/Cases/Case_1_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_185/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.60637018370656</v>
+        <v>19.85438408664441</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.608802313673372</v>
+        <v>3.887263975812276</v>
       </c>
       <c r="E2">
-        <v>7.028175623709704</v>
+        <v>10.23391065261451</v>
       </c>
       <c r="F2">
-        <v>41.72365014402425</v>
+        <v>55.35832954098038</v>
       </c>
       <c r="G2">
-        <v>2.160589600158458</v>
+        <v>3.795883253417029</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.577164196119314</v>
+        <v>10.08419749736968</v>
       </c>
       <c r="K2">
-        <v>16.29001167123922</v>
+        <v>18.79855396859546</v>
       </c>
       <c r="L2">
-        <v>7.626747793880402</v>
+        <v>12.00897825437281</v>
       </c>
       <c r="M2">
-        <v>11.99143774465608</v>
+        <v>18.90314920690101</v>
       </c>
       <c r="N2">
-        <v>18.47268965085657</v>
+        <v>26.6832028827726</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.07866339509866</v>
+        <v>19.81198031517901</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.463402008770654</v>
+        <v>3.853773975403413</v>
       </c>
       <c r="E3">
-        <v>6.91225397935608</v>
+        <v>10.20577093064058</v>
       </c>
       <c r="F3">
-        <v>40.93935881935734</v>
+        <v>55.31422856337736</v>
       </c>
       <c r="G3">
-        <v>2.170196550662294</v>
+        <v>3.799370369121106</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.562946593379933</v>
+        <v>10.08003525097336</v>
       </c>
       <c r="K3">
-        <v>15.45239981088317</v>
+        <v>18.67906810664025</v>
       </c>
       <c r="L3">
-        <v>7.442562367947471</v>
+        <v>12.01341968161548</v>
       </c>
       <c r="M3">
-        <v>11.74027309629509</v>
+        <v>18.911867852338</v>
       </c>
       <c r="N3">
-        <v>18.59625220521303</v>
+        <v>26.72225449993319</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.75422465587776</v>
+        <v>19.79001804048887</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.371832729948202</v>
+        <v>3.832733214650919</v>
       </c>
       <c r="E4">
-        <v>6.840823697361083</v>
+        <v>10.18803957504637</v>
       </c>
       <c r="F4">
-        <v>40.47860921978656</v>
+        <v>55.29680060914976</v>
       </c>
       <c r="G4">
-        <v>2.176251215206323</v>
+        <v>3.801624040513216</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.554458786229627</v>
+        <v>10.07743125355095</v>
       </c>
       <c r="K4">
-        <v>14.92758497017459</v>
+        <v>18.61026025059196</v>
       </c>
       <c r="L4">
-        <v>7.332226374270509</v>
+        <v>12.01826256294281</v>
       </c>
       <c r="M4">
-        <v>11.5905677240941</v>
+        <v>18.9203732725609</v>
       </c>
       <c r="N4">
-        <v>18.67688126805329</v>
+        <v>26.7480985521582</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.62208124544649</v>
+        <v>19.78209921957695</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.333929637082287</v>
+        <v>3.824040357640748</v>
       </c>
       <c r="E5">
-        <v>6.811629515353926</v>
+        <v>10.18069965128882</v>
       </c>
       <c r="F5">
-        <v>40.29606892201045</v>
+        <v>55.29212839743133</v>
       </c>
       <c r="G5">
-        <v>2.17875956622597</v>
+        <v>3.802570837740805</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.551052853116701</v>
+        <v>10.07635780387991</v>
       </c>
       <c r="K5">
-        <v>14.71132140987373</v>
+        <v>18.58339089469751</v>
       </c>
       <c r="L5">
-        <v>7.287989292546301</v>
+        <v>12.02076850242626</v>
       </c>
       <c r="M5">
-        <v>11.53073666325218</v>
+        <v>18.92463274890514</v>
       </c>
       <c r="N5">
-        <v>18.71090823231051</v>
+        <v>26.75909968062361</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.60014846048919</v>
+        <v>19.78084674938633</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.327600124443046</v>
+        <v>3.822589799340408</v>
       </c>
       <c r="E6">
-        <v>6.806776065866249</v>
+        <v>10.17947395517894</v>
       </c>
       <c r="F6">
-        <v>40.26607294359613</v>
+        <v>55.29149940241263</v>
       </c>
       <c r="G6">
-        <v>2.179178604595869</v>
+        <v>3.802729771449201</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.550490277751058</v>
+        <v>10.07617881146516</v>
       </c>
       <c r="K6">
-        <v>14.67527442684276</v>
+        <v>18.5790006250752</v>
       </c>
       <c r="L6">
-        <v>7.280688568994563</v>
+        <v>12.02121677662822</v>
       </c>
       <c r="M6">
-        <v>11.52087391678803</v>
+        <v>18.92538797316971</v>
       </c>
       <c r="N6">
-        <v>18.71662829979896</v>
+        <v>26.76095477015666</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.75244200541492</v>
+        <v>19.78990706206961</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.371323946900237</v>
+        <v>3.832616457756371</v>
       </c>
       <c r="E7">
-        <v>6.840430348994175</v>
+        <v>10.18794104914608</v>
       </c>
       <c r="F7">
-        <v>40.47612630821578</v>
+        <v>55.2967277567552</v>
       </c>
       <c r="G7">
-        <v>2.1762848752827</v>
+        <v>3.801636694195207</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.554412648340073</v>
+        <v>10.07741682660714</v>
       </c>
       <c r="K7">
-        <v>14.92467770705167</v>
+        <v>18.60989311128595</v>
       </c>
       <c r="L7">
-        <v>7.331626794857773</v>
+        <v>12.01829420279246</v>
       </c>
       <c r="M7">
-        <v>11.58975600991861</v>
+        <v>18.92042750383051</v>
       </c>
       <c r="N7">
-        <v>18.67733546451936</v>
+        <v>26.74824501616288</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.42460460339519</v>
+        <v>19.83892196273257</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.559135688997165</v>
+        <v>3.875816714717073</v>
       </c>
       <c r="E8">
-        <v>6.988244594972878</v>
+        <v>10.22430205025382</v>
       </c>
       <c r="F8">
-        <v>41.44890054716787</v>
+        <v>55.34112291232186</v>
       </c>
       <c r="G8">
-        <v>2.163870834731051</v>
+        <v>3.797062308652345</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.572206803772142</v>
+        <v>10.08277230790189</v>
       </c>
       <c r="K8">
-        <v>16.00351925233513</v>
+        <v>18.75642476647455</v>
       </c>
       <c r="L8">
-        <v>7.562688418857941</v>
+        <v>12.01007079962022</v>
       </c>
       <c r="M8">
-        <v>11.90392441559615</v>
+        <v>18.90550172792485</v>
       </c>
       <c r="N8">
-        <v>18.51428860013154</v>
+        <v>26.69628066729286</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.73261331795532</v>
+        <v>19.96703658917564</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.910046535595393</v>
+        <v>3.956675176598401</v>
       </c>
       <c r="E9">
-        <v>7.277225014736369</v>
+        <v>10.29201997712414</v>
       </c>
       <c r="F9">
-        <v>43.5222772189608</v>
+        <v>55.50456332902042</v>
       </c>
       <c r="G9">
-        <v>2.140675924674464</v>
+        <v>3.788980498660356</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.609414420166207</v>
+        <v>10.09289722458925</v>
       </c>
       <c r="K9">
-        <v>18.02733285843083</v>
+        <v>19.07876031882079</v>
       </c>
       <c r="L9">
-        <v>8.036307896364491</v>
+        <v>12.01071000101964</v>
       </c>
       <c r="M9">
-        <v>12.55406934521879</v>
+        <v>18.90119943417015</v>
       </c>
       <c r="N9">
-        <v>18.23370526247746</v>
+        <v>26.6091777048861</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.67995100783791</v>
+        <v>20.08017581489867</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.15881139825406</v>
+        <v>4.013645486426771</v>
       </c>
       <c r="E10">
-        <v>7.490826546710163</v>
+        <v>10.3396055755231</v>
       </c>
       <c r="F10">
-        <v>45.1481680955546</v>
+        <v>55.67088383096331</v>
       </c>
       <c r="G10">
-        <v>2.124200413101073</v>
+        <v>3.783577996805101</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.63877570194245</v>
+        <v>10.10011558465991</v>
       </c>
       <c r="K10">
-        <v>19.45051900701324</v>
+        <v>19.33522131393641</v>
       </c>
       <c r="L10">
-        <v>8.395242552843554</v>
+        <v>12.0213605580987</v>
       </c>
       <c r="M10">
-        <v>13.05042314976069</v>
+        <v>18.91318896888932</v>
       </c>
       <c r="N10">
-        <v>18.05358614468729</v>
+        <v>26.55419374035394</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.10682406813148</v>
+        <v>20.13565166181533</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.270479743980564</v>
+        <v>4.03901612169589</v>
       </c>
       <c r="E11">
-        <v>7.588763692160587</v>
+        <v>10.36078716428695</v>
       </c>
       <c r="F11">
-        <v>45.91070875427328</v>
+        <v>55.75649105349046</v>
       </c>
       <c r="G11">
-        <v>2.116794741023483</v>
+        <v>3.781235092210371</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.65273034147593</v>
+        <v>10.10335361424395</v>
       </c>
       <c r="K11">
-        <v>20.1474349070135</v>
+        <v>19.45576572287248</v>
       </c>
       <c r="L11">
-        <v>8.560689675533936</v>
+        <v>12.02840411625653</v>
       </c>
       <c r="M11">
-        <v>13.2799488541134</v>
+        <v>18.92191293174158</v>
       </c>
       <c r="N11">
-        <v>17.97785824703679</v>
+        <v>26.53113449968422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.26782037007561</v>
+        <v>20.1572235850172</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.312597837380035</v>
+        <v>4.048543357352435</v>
       </c>
       <c r="E12">
-        <v>7.626007765619468</v>
+        <v>10.36874140961438</v>
       </c>
       <c r="F12">
-        <v>46.20283413520204</v>
+        <v>55.79032787476076</v>
       </c>
       <c r="G12">
-        <v>2.114000124296057</v>
+        <v>3.78036428617902</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.658115720283199</v>
+        <v>10.10457336575681</v>
       </c>
       <c r="K12">
-        <v>20.42766394492701</v>
+        <v>19.501935814784</v>
       </c>
       <c r="L12">
-        <v>8.62364148887524</v>
+        <v>12.03138605474242</v>
       </c>
       <c r="M12">
-        <v>13.36738162427254</v>
+        <v>18.92568445457081</v>
       </c>
       <c r="N12">
-        <v>17.95012963690836</v>
+        <v>26.52268331385056</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.23317668096241</v>
+        <v>20.15255278115276</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.303533607559792</v>
+        <v>4.04649508375751</v>
       </c>
       <c r="E13">
-        <v>7.617978767721135</v>
+        <v>10.36703128748953</v>
       </c>
       <c r="F13">
-        <v>46.13976843914598</v>
+        <v>55.78297758222017</v>
       </c>
       <c r="G13">
-        <v>2.114601613656236</v>
+        <v>3.780551101911558</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.656951127366647</v>
+        <v>10.10431095370093</v>
       </c>
       <c r="K13">
-        <v>20.36750336813788</v>
+        <v>19.49196959060456</v>
       </c>
       <c r="L13">
-        <v>8.610070407780363</v>
+        <v>12.03072987010919</v>
       </c>
       <c r="M13">
-        <v>13.3485286725189</v>
+        <v>18.92485141640205</v>
       </c>
       <c r="N13">
-        <v>17.95605837950188</v>
+        <v>26.52449093743381</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.12008267038332</v>
+        <v>20.13741515628912</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.273947901523385</v>
+        <v>4.039801547174923</v>
       </c>
       <c r="E14">
-        <v>7.591824337114109</v>
+        <v>10.36144290200404</v>
       </c>
       <c r="F14">
-        <v>45.93467406502428</v>
+        <v>55.7592464547436</v>
       </c>
       <c r="G14">
-        <v>2.116564649523735</v>
+        <v>3.78116312231695</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.653171281297735</v>
+        <v>10.10345409178156</v>
       </c>
       <c r="K14">
-        <v>20.1705761733939</v>
+        <v>19.45955389693591</v>
       </c>
       <c r="L14">
-        <v>8.565862768618572</v>
+        <v>12.02864314422379</v>
       </c>
       <c r="M14">
-        <v>13.28713173574428</v>
+        <v>18.92221385273098</v>
       </c>
       <c r="N14">
-        <v>17.97555766003306</v>
+        <v>26.53043358704334</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.05072298775564</v>
+        <v>20.1282160603959</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.255805409215092</v>
+        <v>4.035691086708141</v>
       </c>
       <c r="E15">
-        <v>7.575825998536728</v>
+        <v>10.3580111645023</v>
       </c>
       <c r="F15">
-        <v>45.80948909561626</v>
+        <v>55.74489492335163</v>
       </c>
       <c r="G15">
-        <v>2.117768238992126</v>
+        <v>3.781540135565292</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.650869657144811</v>
+        <v>10.10292840728534</v>
       </c>
       <c r="K15">
-        <v>20.04938823917174</v>
+        <v>19.43976533611431</v>
       </c>
       <c r="L15">
-        <v>8.538823271607516</v>
+        <v>12.02740590035427</v>
       </c>
       <c r="M15">
-        <v>13.24959113778761</v>
+        <v>18.9206591377472</v>
       </c>
       <c r="N15">
-        <v>17.98762672952473</v>
+        <v>26.53411020561946</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.65196571507717</v>
+        <v>20.07662998990721</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.1514873350627</v>
+        <v>4.011976339234788</v>
       </c>
       <c r="E16">
-        <v>7.484445446655107</v>
+        <v>10.33821195824774</v>
       </c>
       <c r="F16">
-        <v>45.09880092002084</v>
+        <v>55.66548843780179</v>
       </c>
       <c r="G16">
-        <v>2.124685929761038</v>
+        <v>3.783733411418435</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.637877012388575</v>
+        <v>10.09990306563997</v>
       </c>
       <c r="K16">
-        <v>19.40886471254116</v>
+        <v>19.32741851759772</v>
       </c>
       <c r="L16">
-        <v>8.384472668878171</v>
+        <v>12.02094436608228</v>
       </c>
       <c r="M16">
-        <v>13.03549626638065</v>
+        <v>18.9126844489688</v>
       </c>
       <c r="N16">
-        <v>18.05866463338426</v>
+        <v>26.55574001778251</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.40624318289573</v>
+        <v>20.04600195929336</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.087139342286681</v>
+        <v>3.997287233150702</v>
       </c>
       <c r="E17">
-        <v>7.428614602589051</v>
+        <v>10.32594671249272</v>
       </c>
       <c r="F17">
-        <v>44.66872849193363</v>
+        <v>55.61931534459669</v>
       </c>
       <c r="G17">
-        <v>2.128950452809129</v>
+        <v>3.785108229622153</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.63006975394372</v>
+        <v>10.09803552883385</v>
       </c>
       <c r="K17">
-        <v>19.04218660859627</v>
+        <v>19.25946612711499</v>
       </c>
       <c r="L17">
-        <v>8.290328132053377</v>
+        <v>12.01754255957883</v>
       </c>
       <c r="M17">
-        <v>12.90509466674323</v>
+        <v>18.90862820955351</v>
       </c>
       <c r="N17">
-        <v>18.10387142958373</v>
+        <v>26.56950945784618</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.26452886383175</v>
+        <v>20.02876356831217</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.049984012502317</v>
+        <v>3.98878720436508</v>
       </c>
       <c r="E18">
-        <v>7.396571356350504</v>
+        <v>10.31884825891572</v>
       </c>
       <c r="F18">
-        <v>44.42351315286033</v>
+        <v>55.59369483797813</v>
       </c>
       <c r="G18">
-        <v>2.131411883447062</v>
+        <v>3.785909792420338</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.625634509806426</v>
+        <v>10.09695706677076</v>
       </c>
       <c r="K18">
-        <v>18.82991273618049</v>
+        <v>19.22074900069716</v>
       </c>
       <c r="L18">
-        <v>8.23638275485712</v>
+        <v>12.01579297012307</v>
       </c>
       <c r="M18">
-        <v>12.83044309702178</v>
+        <v>18.90660309549163</v>
       </c>
       <c r="N18">
-        <v>18.13045393860896</v>
+        <v>26.57761312488133</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.21648373574679</v>
+        <v>20.02299222572626</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.037377809287446</v>
+        <v>3.985900489983235</v>
       </c>
       <c r="E19">
-        <v>7.385732624884131</v>
+        <v>10.31643731560615</v>
       </c>
       <c r="F19">
-        <v>44.34085513394998</v>
+        <v>55.58518142856088</v>
       </c>
       <c r="G19">
-        <v>2.13224684513697</v>
+        <v>3.786183046281709</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.624141878807377</v>
+        <v>10.09659117444277</v>
       </c>
       <c r="K19">
-        <v>18.75780606313424</v>
+        <v>19.207704187474</v>
       </c>
       <c r="L19">
-        <v>8.218153285289159</v>
+        <v>12.01523618940432</v>
       </c>
       <c r="M19">
-        <v>12.80522857111805</v>
+        <v>18.90597037766331</v>
       </c>
       <c r="N19">
-        <v>18.13955249884652</v>
+        <v>26.58038846446917</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.43244076931733</v>
+        <v>20.0492233237029</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.094003891287566</v>
+        <v>3.998856228984828</v>
       </c>
       <c r="E20">
-        <v>7.434550413343642</v>
+        <v>10.32725690168758</v>
       </c>
       <c r="F20">
-        <v>44.71428738844799</v>
+        <v>55.62413364637437</v>
       </c>
       <c r="G20">
-        <v>2.128495619231839</v>
+        <v>3.784960760429942</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.630895025085345</v>
+        <v>10.09823477574339</v>
       </c>
       <c r="K20">
-        <v>19.08136214369913</v>
+        <v>19.26666201422681</v>
       </c>
       <c r="L20">
-        <v>8.300328962189944</v>
+        <v>12.01788326980569</v>
       </c>
       <c r="M20">
-        <v>12.91893988589525</v>
+        <v>18.90902814935802</v>
       </c>
       <c r="N20">
-        <v>18.09899860622417</v>
+        <v>26.56802465006587</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.15331919729374</v>
+        <v>20.14184622451067</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.28264209578619</v>
+        <v>4.041769787204713</v>
       </c>
       <c r="E21">
-        <v>7.599501848046544</v>
+        <v>10.36308615701878</v>
       </c>
       <c r="F21">
-        <v>45.99482312313318</v>
+        <v>55.76617844075506</v>
       </c>
       <c r="G21">
-        <v>2.115987819721929</v>
+        <v>3.780982912726818</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.654278641360388</v>
+        <v>10.10370594599606</v>
       </c>
       <c r="K21">
-        <v>20.22853577492163</v>
+        <v>19.46906127599332</v>
       </c>
       <c r="L21">
-        <v>8.578839512830408</v>
+        <v>12.02924753806087</v>
       </c>
       <c r="M21">
-        <v>13.30515160676254</v>
+        <v>18.92297588849797</v>
       </c>
       <c r="N21">
-        <v>17.96980404947587</v>
+        <v>26.52868046482043</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.62064590271766</v>
+        <v>20.20566445073013</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.404974633377257</v>
+        <v>4.06934881156766</v>
       </c>
       <c r="E22">
-        <v>7.708251479467785</v>
+        <v>10.38611356983479</v>
       </c>
       <c r="F22">
-        <v>46.85141428888384</v>
+        <v>55.86727908439365</v>
       </c>
       <c r="G22">
-        <v>2.107868417929283</v>
+        <v>3.778478713431205</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.670158674983642</v>
+        <v>10.10724431785265</v>
       </c>
       <c r="K22">
-        <v>21.03623088461934</v>
+        <v>19.60436968554644</v>
       </c>
       <c r="L22">
-        <v>8.762615214182377</v>
+        <v>12.03850821258394</v>
       </c>
       <c r="M22">
-        <v>13.56057047319855</v>
+        <v>18.93481785699964</v>
       </c>
       <c r="N22">
-        <v>17.89092378718627</v>
+        <v>26.50460375752517</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.37158860994465</v>
+        <v>20.17130714371039</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.339753151831746</v>
+        <v>4.054672674000048</v>
       </c>
       <c r="E23">
-        <v>7.650106027247648</v>
+        <v>10.37385895782986</v>
       </c>
       <c r="F23">
-        <v>46.39240180700943</v>
+        <v>55.812567464679</v>
       </c>
       <c r="G23">
-        <v>2.112197947498417</v>
+        <v>3.779806539958567</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.661623037359971</v>
+        <v>10.10535919282348</v>
       </c>
       <c r="K23">
-        <v>20.60741686528959</v>
+        <v>19.53188778728071</v>
       </c>
       <c r="L23">
-        <v>8.664371707387259</v>
+        <v>12.03339838769478</v>
       </c>
       <c r="M23">
-        <v>13.42397772210274</v>
+        <v>18.92824893388438</v>
       </c>
       <c r="N23">
-        <v>17.93249525039283</v>
+        <v>26.51730417061445</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.42059822183205</v>
+        <v>20.04776579122579</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.090900933016528</v>
+        <v>3.998147057390821</v>
       </c>
       <c r="E24">
-        <v>7.431866666528903</v>
+        <v>10.32666471158997</v>
       </c>
       <c r="F24">
-        <v>44.6936838652765</v>
+        <v>55.62195240991373</v>
       </c>
       <c r="G24">
-        <v>2.128701219052468</v>
+        <v>3.785027396477302</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.630521755244311</v>
+        <v>10.09814471115566</v>
       </c>
       <c r="K24">
-        <v>19.06365544846842</v>
+        <v>19.2634076620029</v>
       </c>
       <c r="L24">
-        <v>8.295807026625535</v>
+        <v>12.01772859245514</v>
       </c>
       <c r="M24">
-        <v>12.91267947000823</v>
+        <v>18.90884638053181</v>
       </c>
       <c r="N24">
-        <v>18.1011997681753</v>
+        <v>26.56869534779268</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.38069976873148</v>
+        <v>19.9290001097201</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.816839764453055</v>
+        <v>3.935222575205563</v>
       </c>
       <c r="E25">
-        <v>7.198968901249238</v>
+        <v>10.27408235412377</v>
       </c>
       <c r="F25">
-        <v>42.94350181994638</v>
+        <v>55.45219900078755</v>
       </c>
       <c r="G25">
-        <v>2.146840937091759</v>
+        <v>3.791072389041603</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.599041800458588</v>
+        <v>10.09019756230661</v>
       </c>
       <c r="K25">
-        <v>17.49063574231196</v>
+        <v>18.98798225824276</v>
       </c>
       <c r="L25">
-        <v>7.906159744961619</v>
+        <v>12.00874554848774</v>
       </c>
       <c r="M25">
-        <v>12.37476965971199</v>
+        <v>18.89969661259325</v>
       </c>
       <c r="N25">
-        <v>18.30521247709714</v>
+        <v>26.63115823049671</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_185/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.85438408664441</v>
+        <v>14.60637018370654</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.887263975812276</v>
+        <v>2.608802313673201</v>
       </c>
       <c r="E2">
-        <v>10.23391065261451</v>
+        <v>7.028175623709637</v>
       </c>
       <c r="F2">
-        <v>55.35832954098038</v>
+        <v>41.72365014402418</v>
       </c>
       <c r="G2">
-        <v>3.795883253417029</v>
+        <v>2.160589600157929</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.08419749736968</v>
+        <v>6.577164196119418</v>
       </c>
       <c r="K2">
-        <v>18.79855396859546</v>
+        <v>16.29001167123922</v>
       </c>
       <c r="L2">
-        <v>12.00897825437281</v>
+        <v>7.626747793880432</v>
       </c>
       <c r="M2">
-        <v>18.90314920690101</v>
+        <v>11.99143774465608</v>
       </c>
       <c r="N2">
-        <v>26.6832028827726</v>
+        <v>18.47268965085656</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.81198031517901</v>
+        <v>14.0786633950987</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.853773975403413</v>
+        <v>2.4634020087706</v>
       </c>
       <c r="E3">
-        <v>10.20577093064058</v>
+        <v>6.912253979356143</v>
       </c>
       <c r="F3">
-        <v>55.31422856337736</v>
+        <v>40.9393588193572</v>
       </c>
       <c r="G3">
-        <v>3.799370369121106</v>
+        <v>2.17019655066216</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.08003525097336</v>
+        <v>6.562946593379933</v>
       </c>
       <c r="K3">
-        <v>18.67906810664025</v>
+        <v>15.45239981088315</v>
       </c>
       <c r="L3">
-        <v>12.01341968161548</v>
+        <v>7.442562367947414</v>
       </c>
       <c r="M3">
-        <v>18.911867852338</v>
+        <v>11.74027309629505</v>
       </c>
       <c r="N3">
-        <v>26.72225449993319</v>
+        <v>18.59625220521297</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.79001804048887</v>
+        <v>13.75422465587783</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.832733214650919</v>
+        <v>2.371832729948256</v>
       </c>
       <c r="E4">
-        <v>10.18803957504637</v>
+        <v>6.840823697361147</v>
       </c>
       <c r="F4">
-        <v>55.29680060914976</v>
+        <v>40.47860921978662</v>
       </c>
       <c r="G4">
-        <v>3.801624040513216</v>
+        <v>2.176251215206194</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.07743125355095</v>
+        <v>6.554458786229659</v>
       </c>
       <c r="K4">
-        <v>18.61026025059196</v>
+        <v>14.92758497017458</v>
       </c>
       <c r="L4">
-        <v>12.01826256294281</v>
+        <v>7.332226374270527</v>
       </c>
       <c r="M4">
-        <v>18.9203732725609</v>
+        <v>11.59056772409412</v>
       </c>
       <c r="N4">
-        <v>26.7480985521582</v>
+        <v>18.6768812680533</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.78209921957695</v>
+        <v>13.62208124544653</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.824040357640748</v>
+        <v>2.333929637082271</v>
       </c>
       <c r="E5">
-        <v>10.18069965128882</v>
+        <v>6.811629515353926</v>
       </c>
       <c r="F5">
-        <v>55.29212839743133</v>
+        <v>40.29606892201053</v>
       </c>
       <c r="G5">
-        <v>3.802570837740805</v>
+        <v>2.178759566225702</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.07635780387991</v>
+        <v>6.55105285311677</v>
       </c>
       <c r="K5">
-        <v>18.58339089469751</v>
+        <v>14.71132140987373</v>
       </c>
       <c r="L5">
-        <v>12.02076850242626</v>
+        <v>7.287989292546309</v>
       </c>
       <c r="M5">
-        <v>18.92463274890514</v>
+        <v>11.5307366632522</v>
       </c>
       <c r="N5">
-        <v>26.75909968062361</v>
+        <v>18.71090823231055</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.78084674938633</v>
+        <v>13.60014846048924</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.822589799340408</v>
+        <v>2.327600124443045</v>
       </c>
       <c r="E6">
-        <v>10.17947395517894</v>
+        <v>6.806776065866245</v>
       </c>
       <c r="F6">
-        <v>55.29149940241263</v>
+        <v>40.26607294359618</v>
       </c>
       <c r="G6">
-        <v>3.802729771449201</v>
+        <v>2.179178604595868</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.07617881146516</v>
+        <v>6.550490277750989</v>
       </c>
       <c r="K6">
-        <v>18.5790006250752</v>
+        <v>14.67527442684279</v>
       </c>
       <c r="L6">
-        <v>12.02121677662822</v>
+        <v>7.280688568994524</v>
       </c>
       <c r="M6">
-        <v>18.92538797316971</v>
+        <v>11.52087391678805</v>
       </c>
       <c r="N6">
-        <v>26.76095477015666</v>
+        <v>18.71662829979894</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.78990706206961</v>
+        <v>13.75244200541491</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.832616457756371</v>
+        <v>2.37132394690035</v>
       </c>
       <c r="E7">
-        <v>10.18794104914608</v>
+        <v>6.840430348994174</v>
       </c>
       <c r="F7">
-        <v>55.2967277567552</v>
+        <v>40.47612630821584</v>
       </c>
       <c r="G7">
-        <v>3.801636694195207</v>
+        <v>2.176284875282966</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.07741682660714</v>
+        <v>6.554412648340074</v>
       </c>
       <c r="K7">
-        <v>18.60989311128595</v>
+        <v>14.92467770705166</v>
       </c>
       <c r="L7">
-        <v>12.01829420279246</v>
+        <v>7.331626794857725</v>
       </c>
       <c r="M7">
-        <v>18.92042750383051</v>
+        <v>11.5897560099186</v>
       </c>
       <c r="N7">
-        <v>26.74824501616288</v>
+        <v>18.67733546451937</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.83892196273257</v>
+        <v>14.42460460339525</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.875816714717073</v>
+        <v>2.559135688997062</v>
       </c>
       <c r="E8">
-        <v>10.22430205025382</v>
+        <v>6.988244594972814</v>
       </c>
       <c r="F8">
-        <v>55.34112291232186</v>
+        <v>41.44890054716812</v>
       </c>
       <c r="G8">
-        <v>3.797062308652345</v>
+        <v>2.163870834731049</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.08277230790189</v>
+        <v>6.572206803772144</v>
       </c>
       <c r="K8">
-        <v>18.75642476647455</v>
+        <v>16.00351925233514</v>
       </c>
       <c r="L8">
-        <v>12.01007079962022</v>
+        <v>7.562688418857941</v>
       </c>
       <c r="M8">
-        <v>18.90550172792485</v>
+        <v>11.90392441559618</v>
       </c>
       <c r="N8">
-        <v>26.69628066729286</v>
+        <v>18.51428860013169</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.96703658917564</v>
+        <v>15.73261331795529</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.956675176598401</v>
+        <v>2.910046535595441</v>
       </c>
       <c r="E9">
-        <v>10.29201997712414</v>
+        <v>7.277225014736366</v>
       </c>
       <c r="F9">
-        <v>55.50456332902042</v>
+        <v>43.52227721896086</v>
       </c>
       <c r="G9">
-        <v>3.788980498660356</v>
+        <v>2.140675924674731</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.09289722458925</v>
+        <v>6.60941442016614</v>
       </c>
       <c r="K9">
-        <v>19.07876031882079</v>
+        <v>18.02733285843082</v>
       </c>
       <c r="L9">
-        <v>12.01071000101964</v>
+        <v>8.036307896364491</v>
       </c>
       <c r="M9">
-        <v>18.90119943417015</v>
+        <v>12.55406934521878</v>
       </c>
       <c r="N9">
-        <v>26.6091777048861</v>
+        <v>18.23370526247749</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.08017581489867</v>
+        <v>16.67995100783791</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.013645486426771</v>
+        <v>3.158811398254298</v>
       </c>
       <c r="E10">
-        <v>10.3396055755231</v>
+        <v>7.490826546710232</v>
       </c>
       <c r="F10">
-        <v>55.67088383096331</v>
+        <v>45.14816809555457</v>
       </c>
       <c r="G10">
-        <v>3.783577996805101</v>
+        <v>2.124200413101339</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.10011558465991</v>
+        <v>6.63877570194245</v>
       </c>
       <c r="K10">
-        <v>19.33522131393641</v>
+        <v>19.45051900701322</v>
       </c>
       <c r="L10">
-        <v>12.0213605580987</v>
+        <v>8.395242552843559</v>
       </c>
       <c r="M10">
-        <v>18.91318896888932</v>
+        <v>13.05042314976069</v>
       </c>
       <c r="N10">
-        <v>26.55419374035394</v>
+        <v>18.05358614468723</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.13565166181533</v>
+        <v>17.10682406813145</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.03901612169589</v>
+        <v>3.270479743980347</v>
       </c>
       <c r="E11">
-        <v>10.36078716428695</v>
+        <v>7.588763692160532</v>
       </c>
       <c r="F11">
-        <v>55.75649105349046</v>
+        <v>45.91070875427319</v>
       </c>
       <c r="G11">
-        <v>3.781235092210371</v>
+        <v>2.116794741023345</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.10335361424395</v>
+        <v>6.65273034147593</v>
       </c>
       <c r="K11">
-        <v>19.45576572287248</v>
+        <v>20.14743490701351</v>
       </c>
       <c r="L11">
-        <v>12.02840411625653</v>
+        <v>8.560689675533876</v>
       </c>
       <c r="M11">
-        <v>18.92191293174158</v>
+        <v>13.27994885411336</v>
       </c>
       <c r="N11">
-        <v>26.53113449968422</v>
+        <v>17.97785824703683</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.1572235850172</v>
+        <v>17.26782037007558</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.048543357352435</v>
+        <v>3.312597837380039</v>
       </c>
       <c r="E12">
-        <v>10.36874140961438</v>
+        <v>7.626007765619599</v>
       </c>
       <c r="F12">
-        <v>55.79032787476076</v>
+        <v>46.20283413520199</v>
       </c>
       <c r="G12">
-        <v>3.78036428617902</v>
+        <v>2.114000124295926</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.10457336575681</v>
+        <v>6.658115720283235</v>
       </c>
       <c r="K12">
-        <v>19.501935814784</v>
+        <v>20.42766394492709</v>
       </c>
       <c r="L12">
-        <v>12.03138605474242</v>
+        <v>8.623641488875217</v>
       </c>
       <c r="M12">
-        <v>18.92568445457081</v>
+        <v>13.36738162427252</v>
       </c>
       <c r="N12">
-        <v>26.52268331385056</v>
+        <v>17.9501296369083</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.15255278115276</v>
+        <v>17.23317668096241</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.04649508375751</v>
+        <v>3.303533607559696</v>
       </c>
       <c r="E13">
-        <v>10.36703128748953</v>
+        <v>7.617978767720936</v>
       </c>
       <c r="F13">
-        <v>55.78297758222017</v>
+        <v>46.139768439146</v>
       </c>
       <c r="G13">
-        <v>3.780551101911558</v>
+        <v>2.114601613656369</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.10431095370093</v>
+        <v>6.656951127366613</v>
       </c>
       <c r="K13">
-        <v>19.49196959060456</v>
+        <v>20.36750336813786</v>
       </c>
       <c r="L13">
-        <v>12.03072987010919</v>
+        <v>8.610070407780354</v>
       </c>
       <c r="M13">
-        <v>18.92485141640205</v>
+        <v>13.3485286725189</v>
       </c>
       <c r="N13">
-        <v>26.52449093743381</v>
+        <v>17.95605837950189</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.13741515628912</v>
+        <v>17.1200826703833</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.039801547174923</v>
+        <v>3.273947901523491</v>
       </c>
       <c r="E14">
-        <v>10.36144290200404</v>
+        <v>7.591824337114106</v>
       </c>
       <c r="F14">
-        <v>55.7592464547436</v>
+        <v>45.93467406502428</v>
       </c>
       <c r="G14">
-        <v>3.78116312231695</v>
+        <v>2.116564649523732</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.10345409178156</v>
+        <v>6.6531712812977</v>
       </c>
       <c r="K14">
-        <v>19.45955389693591</v>
+        <v>20.17057617339389</v>
       </c>
       <c r="L14">
-        <v>12.02864314422379</v>
+        <v>8.56586276861858</v>
       </c>
       <c r="M14">
-        <v>18.92221385273098</v>
+        <v>13.28713173574429</v>
       </c>
       <c r="N14">
-        <v>26.53043358704334</v>
+        <v>17.97555766003306</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.1282160603959</v>
+        <v>17.05072298775565</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.035691086708141</v>
+        <v>3.255805409215139</v>
       </c>
       <c r="E15">
-        <v>10.3580111645023</v>
+        <v>7.575825998536861</v>
       </c>
       <c r="F15">
-        <v>55.74489492335163</v>
+        <v>45.80948909561611</v>
       </c>
       <c r="G15">
-        <v>3.781540135565292</v>
+        <v>2.117768238992254</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.10292840728534</v>
+        <v>6.650869657144945</v>
       </c>
       <c r="K15">
-        <v>19.43976533611431</v>
+        <v>20.04938823917183</v>
       </c>
       <c r="L15">
-        <v>12.02740590035427</v>
+        <v>8.538823271607496</v>
       </c>
       <c r="M15">
-        <v>18.9206591377472</v>
+        <v>13.24959113778758</v>
       </c>
       <c r="N15">
-        <v>26.53411020561946</v>
+        <v>17.98762672952468</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.07662998990721</v>
+        <v>16.65196571507721</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.011976339234788</v>
+        <v>3.15148733506269</v>
       </c>
       <c r="E16">
-        <v>10.33821195824774</v>
+        <v>7.484445446655235</v>
       </c>
       <c r="F16">
-        <v>55.66548843780179</v>
+        <v>45.0988009200208</v>
       </c>
       <c r="G16">
-        <v>3.783733411418435</v>
+        <v>2.124685929760909</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.09990306563997</v>
+        <v>6.637877012388675</v>
       </c>
       <c r="K16">
-        <v>19.32741851759772</v>
+        <v>19.40886471254114</v>
       </c>
       <c r="L16">
-        <v>12.02094436608228</v>
+        <v>8.384472668878159</v>
       </c>
       <c r="M16">
-        <v>18.9126844489688</v>
+        <v>13.03549626638066</v>
       </c>
       <c r="N16">
-        <v>26.55574001778251</v>
+        <v>18.05866463338428</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.04600195929336</v>
+        <v>16.40624318289565</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.997287233150702</v>
+        <v>3.087139342286665</v>
       </c>
       <c r="E17">
-        <v>10.32594671249272</v>
+        <v>7.428614602588985</v>
       </c>
       <c r="F17">
-        <v>55.61931534459669</v>
+        <v>44.66872849193359</v>
       </c>
       <c r="G17">
-        <v>3.785108229622153</v>
+        <v>2.128950452809129</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.09803552883385</v>
+        <v>6.630069753943619</v>
       </c>
       <c r="K17">
-        <v>19.25946612711499</v>
+        <v>19.04218660859627</v>
       </c>
       <c r="L17">
-        <v>12.01754255957883</v>
+        <v>8.290328132053379</v>
       </c>
       <c r="M17">
-        <v>18.90862820955351</v>
+        <v>12.90509466674322</v>
       </c>
       <c r="N17">
-        <v>26.56950945784618</v>
+        <v>18.10387142958372</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.02876356831217</v>
+        <v>16.26452886383171</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.98878720436508</v>
+        <v>3.049984012502428</v>
       </c>
       <c r="E18">
-        <v>10.31884825891572</v>
+        <v>7.396571356350373</v>
       </c>
       <c r="F18">
-        <v>55.59369483797813</v>
+        <v>44.42351315286032</v>
       </c>
       <c r="G18">
-        <v>3.785909792420338</v>
+        <v>2.131411883447059</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.09695706677076</v>
+        <v>6.625634509806261</v>
       </c>
       <c r="K18">
-        <v>19.22074900069716</v>
+        <v>18.82991273618049</v>
       </c>
       <c r="L18">
-        <v>12.01579297012307</v>
+        <v>8.236382754857081</v>
       </c>
       <c r="M18">
-        <v>18.90660309549163</v>
+        <v>12.83044309702175</v>
       </c>
       <c r="N18">
-        <v>26.57761312488133</v>
+        <v>18.13045393860889</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.02299222572626</v>
+        <v>16.21648373574674</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.985900489983235</v>
+        <v>3.037377809287393</v>
       </c>
       <c r="E19">
-        <v>10.31643731560615</v>
+        <v>7.385732624884072</v>
       </c>
       <c r="F19">
-        <v>55.58518142856088</v>
+        <v>44.34085513394993</v>
       </c>
       <c r="G19">
-        <v>3.786183046281709</v>
+        <v>2.132246845136837</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.09659117444277</v>
+        <v>6.624141878807476</v>
       </c>
       <c r="K19">
-        <v>19.207704187474</v>
+        <v>18.75780606313427</v>
       </c>
       <c r="L19">
-        <v>12.01523618940432</v>
+        <v>8.218153285289189</v>
       </c>
       <c r="M19">
-        <v>18.90597037766331</v>
+        <v>12.80522857111804</v>
       </c>
       <c r="N19">
-        <v>26.58038846446917</v>
+        <v>18.13955249884648</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.0492233237029</v>
+        <v>16.43244076931727</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.998856228984828</v>
+        <v>3.094003891287619</v>
       </c>
       <c r="E20">
-        <v>10.32725690168758</v>
+        <v>7.434550413343641</v>
       </c>
       <c r="F20">
-        <v>55.62413364637437</v>
+        <v>44.71428738844796</v>
       </c>
       <c r="G20">
-        <v>3.784960760429942</v>
+        <v>2.128495619231836</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.09823477574339</v>
+        <v>6.630895025085345</v>
       </c>
       <c r="K20">
-        <v>19.26666201422681</v>
+        <v>19.08136214369914</v>
       </c>
       <c r="L20">
-        <v>12.01788326980569</v>
+        <v>8.300328962190004</v>
       </c>
       <c r="M20">
-        <v>18.90902814935802</v>
+        <v>12.91893988589525</v>
       </c>
       <c r="N20">
-        <v>26.56802465006587</v>
+        <v>18.09899860622415</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.14184622451067</v>
+        <v>17.15331919729372</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.041769787204713</v>
+        <v>3.282642095786084</v>
       </c>
       <c r="E21">
-        <v>10.36308615701878</v>
+        <v>7.599501848046613</v>
       </c>
       <c r="F21">
-        <v>55.76617844075506</v>
+        <v>45.99482312313318</v>
       </c>
       <c r="G21">
-        <v>3.780982912726818</v>
+        <v>2.115987819721667</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.10370594599606</v>
+        <v>6.654278641360454</v>
       </c>
       <c r="K21">
-        <v>19.46906127599332</v>
+        <v>20.22853577492168</v>
       </c>
       <c r="L21">
-        <v>12.02924753806087</v>
+        <v>8.578839512830429</v>
       </c>
       <c r="M21">
-        <v>18.92297588849797</v>
+        <v>13.30515160676253</v>
       </c>
       <c r="N21">
-        <v>26.52868046482043</v>
+        <v>17.9698040494759</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.20566445073013</v>
+        <v>17.62064590271766</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.06934881156766</v>
+        <v>3.404974633377337</v>
       </c>
       <c r="E22">
-        <v>10.38611356983479</v>
+        <v>7.708251479467648</v>
       </c>
       <c r="F22">
-        <v>55.86727908439365</v>
+        <v>46.85141428888396</v>
       </c>
       <c r="G22">
-        <v>3.778478713431205</v>
+        <v>2.107868417929423</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.10724431785265</v>
+        <v>6.670158674983508</v>
       </c>
       <c r="K22">
-        <v>19.60436968554644</v>
+        <v>21.03623088461926</v>
       </c>
       <c r="L22">
-        <v>12.03850821258394</v>
+        <v>8.762615214182382</v>
       </c>
       <c r="M22">
-        <v>18.93481785699964</v>
+        <v>13.56057047319857</v>
       </c>
       <c r="N22">
-        <v>26.50460375752517</v>
+        <v>17.89092378718628</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.17130714371039</v>
+        <v>17.37158860994462</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.054672674000048</v>
+        <v>3.339753151831752</v>
       </c>
       <c r="E23">
-        <v>10.37385895782986</v>
+        <v>7.650106027247462</v>
       </c>
       <c r="F23">
-        <v>55.812567464679</v>
+        <v>46.39240180700946</v>
       </c>
       <c r="G23">
-        <v>3.779806539958567</v>
+        <v>2.112197947498018</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.10535919282348</v>
+        <v>6.661623037359836</v>
       </c>
       <c r="K23">
-        <v>19.53188778728071</v>
+        <v>20.6074168652896</v>
       </c>
       <c r="L23">
-        <v>12.03339838769478</v>
+        <v>8.664371707387209</v>
       </c>
       <c r="M23">
-        <v>18.92824893388438</v>
+        <v>13.42397772210269</v>
       </c>
       <c r="N23">
-        <v>26.51730417061445</v>
+        <v>17.93249525039286</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.04776579122579</v>
+        <v>16.42059822183207</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.998147057390821</v>
+        <v>3.090900933016422</v>
       </c>
       <c r="E24">
-        <v>10.32666471158997</v>
+        <v>7.43186666652883</v>
       </c>
       <c r="F24">
-        <v>55.62195240991373</v>
+        <v>44.69368386527669</v>
       </c>
       <c r="G24">
-        <v>3.785027396477302</v>
+        <v>2.128701219052873</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.09814471115566</v>
+        <v>6.630521755244311</v>
       </c>
       <c r="K24">
-        <v>19.2634076620029</v>
+        <v>19.06365544846841</v>
       </c>
       <c r="L24">
-        <v>12.01772859245514</v>
+        <v>8.295807026625543</v>
       </c>
       <c r="M24">
-        <v>18.90884638053181</v>
+        <v>12.91267947000829</v>
       </c>
       <c r="N24">
-        <v>26.56869534779268</v>
+        <v>18.10119976817542</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.9290001097201</v>
+        <v>15.3806997687315</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.935222575205563</v>
+        <v>2.816839764453214</v>
       </c>
       <c r="E25">
-        <v>10.27408235412377</v>
+        <v>7.198968901249166</v>
       </c>
       <c r="F25">
-        <v>55.45219900078755</v>
+        <v>42.94350181994652</v>
       </c>
       <c r="G25">
-        <v>3.791072389041603</v>
+        <v>2.146840937091759</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.09019756230661</v>
+        <v>6.59904180045842</v>
       </c>
       <c r="K25">
-        <v>18.98798225824276</v>
+        <v>17.49063574231196</v>
       </c>
       <c r="L25">
-        <v>12.00874554848774</v>
+        <v>7.906159744961619</v>
       </c>
       <c r="M25">
-        <v>18.89969661259325</v>
+        <v>12.37476965971198</v>
       </c>
       <c r="N25">
-        <v>26.63115823049671</v>
+        <v>18.30521247709716</v>
       </c>
       <c r="O25">
         <v>0</v>
